--- a/medicine/Psychotrope/Château_de_Marsannay/Château_de_Marsannay.xlsx
+++ b/medicine/Psychotrope/Château_de_Marsannay/Château_de_Marsannay.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Ch%C3%A2teau_de_Marsannay</t>
+          <t>Château_de_Marsannay</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le château de Marsannay est un château de 1990 associé à un domaine viticole de 34 hectares, sur la route des Grands Crus du vignoble de Bourgogne, à Marsannay-la-Côte en Côte-d'Or en Bourgogne-Franche-Comté.
@@ -496,7 +508,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Ch%C3%A2teau_de_Marsannay</t>
+          <t>Château_de_Marsannay</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -514,7 +526,9 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">En 1990 la famille Boisseaux (originaire de Beaune, propriétaire entre autres du groupe Patriarche Père &amp; Fils / Kriter et du Château de Meursault...)...), qui avait acheté de nombreuses vignes à Marsannay et en Côte de Nuits, fait construire ce château de style traditionnel ancien dans le vignoble de Marsannay-la-Côte, sur la Côte d'Or, au sud de Dijon, pour vinifier et élever les vins de ces vignes. Avec boutique de vente, cuverie moderne, caves à vin voûtées d'une capacité de 500 pièces de vin et de 400 000 bouteilles, et salle de réception de 400 m2 pour 350 personnes.
 			Armes de Marsannay-la-Côte
@@ -533,7 +547,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Ch%C3%A2teau_de_Marsannay</t>
+          <t>Château_de_Marsannay</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -551,7 +565,9 @@
           <t>Domaine viticole</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Avec une production annuelle d'environ 600 fûts, soit environ 180 000 bouteilles, le domaine viticole du Château de Marsannay s’étend sur la Côte d'Or, avec près de 34 hectares sur le vignoble de la côte de Nuits, dont 26 hectares du domaine en appellation Marsannay (AOC), et 8 hectares sur les communes de Dijon, Fixin, Gevrey-Chambertin, Vosne-Romanée et Vougeot (Clos-vougeot).
 Le domaine exploite également en fermage les 4 hectares de vignes des Hospices de Dijon, dans le vignoble de la côte de Beaune, sur les communes d’Aloxe-Corton, Savigny-lès-Beaune, Beaune, Pommard et Puligny-Montrachet.
